--- a/team_specific_matrix/Saint Francis (PA)_B.xlsx
+++ b/team_specific_matrix/Saint Francis (PA)_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>0.2271293375394322</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>0.5078864353312302</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.01892744479495268</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.167192429022082</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>0.07886435331230283</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>0.006024096385542169</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>0.01807228915662651</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.04216867469879518</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>0.6927710843373494</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>0.2409638554216867</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.08571428571428572</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>0.3142857142857143</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -699,7 +699,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -717,7 +717,7 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>0.05429864253393665</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>0.004524886877828055</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>0.08144796380090498</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.3031674208144796</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>0.04072398190045249</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>0.1447963800904978</v>
       </c>
       <c r="R6">
-        <v>0</v>
+        <v>0.04977375565610859</v>
       </c>
       <c r="S6">
-        <v>0</v>
+        <v>0.3212669683257919</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>0.07954545454545454</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>0.01704545454545454</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>0.005681818181818182</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>0.05113636363636364</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.1590909090909091</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>0.02840909090909091</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0</v>
+        <v>0.1534090909090909</v>
       </c>
       <c r="R7">
-        <v>0</v>
+        <v>0.07954545454545454</v>
       </c>
       <c r="S7">
-        <v>0</v>
+        <v>0.4261363636363636</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>0.1044776119402985</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>0.01279317697228145</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>0.05756929637526653</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.1130063965884861</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>0.02985074626865672</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0</v>
+        <v>0.1663113006396588</v>
       </c>
       <c r="R8">
-        <v>0</v>
+        <v>0.06823027718550106</v>
       </c>
       <c r="S8">
-        <v>0</v>
+        <v>0.4477611940298508</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>0.06532663316582915</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>0.01005025125628141</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.005025125628140704</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>0.09547738693467336</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.1507537688442211</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>0.01005025125628141</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0</v>
+        <v>0.221105527638191</v>
       </c>
       <c r="R9">
-        <v>0</v>
+        <v>0.07537688442211055</v>
       </c>
       <c r="S9">
-        <v>0</v>
+        <v>0.3668341708542713</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>0.126571668063705</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>0.02095557418273261</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>0.05364626990779547</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.1299245599329422</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>0.03017602682313495</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0</v>
+        <v>0.1860854987426656</v>
       </c>
       <c r="R10">
-        <v>0</v>
+        <v>0.06621961441743504</v>
       </c>
       <c r="S10">
-        <v>0</v>
+        <v>0.3864207879295893</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>0.1835443037974684</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.1012658227848101</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.2405063291139241</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.4367088607594937</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0</v>
+        <v>0.0379746835443038</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>0.7021276595744681</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.2127659574468085</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.007092198581560284</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.01418439716312057</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0</v>
+        <v>0.06382978723404255</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1159,10 +1159,10 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>0.025</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>0.525</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1221,7 +1221,7 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>0.02631578947368421</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.09210526315789473</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.3026315789473684</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>0.06140350877192982</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.0131578947368421</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>0.03947368421052631</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0</v>
+        <v>0.2982456140350877</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>0.0273224043715847</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.180327868852459</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.09289617486338798</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.3551912568306011</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.09836065573770492</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.0273224043715847</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>0.07103825136612021</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0</v>
+        <v>0.1475409836065574</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>0.03258145363408521</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.1904761904761905</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.112781954887218</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.3784461152882205</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.07518796992481203</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.007518796992481203</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>0.06015037593984962</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0</v>
+        <v>0.1428571428571428</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>0.02597402597402598</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.1233766233766234</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.09740259740259741</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.435064935064935</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.03246753246753246</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>0.05844155844155844</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0</v>
+        <v>0.1558441558441558</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>0.02239382239382239</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.2378378378378379</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.07799227799227799</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.3444015444015444</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.1196911196911197</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.01853281853281853</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.001544401544401544</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>0.06254826254826255</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0</v>
+        <v>0.1150579150579151</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Saint Francis (PA)_B.xlsx
+++ b/team_specific_matrix/Saint Francis (PA)_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2271293375394322</v>
+        <v>0.2248520710059172</v>
       </c>
       <c r="C2">
-        <v>0.5078864353312302</v>
+        <v>0.5118343195266272</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01892744479495268</v>
+        <v>0.02071005917159763</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.167192429022082</v>
+        <v>0.1597633136094675</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.07886435331230283</v>
+        <v>0.08284023668639054</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.006024096385542169</v>
+        <v>0.005617977528089887</v>
       </c>
       <c r="C3">
-        <v>0.01807228915662651</v>
+        <v>0.01685393258426966</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.04216867469879518</v>
+        <v>0.0449438202247191</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.6927710843373494</v>
+        <v>0.6910112359550562</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2409638554216867</v>
+        <v>0.2415730337078652</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.08571428571428572</v>
+        <v>0.1</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6</v>
+        <v>0.575</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.3142857142857143</v>
+        <v>0.325</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.05429864253393665</v>
+        <v>0.05128205128205128</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.004524886877828055</v>
+        <v>0.008547008547008548</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.08144796380090498</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.3031674208144796</v>
+        <v>0.2991452991452991</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.04072398190045249</v>
+        <v>0.03846153846153846</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1447963800904978</v>
+        <v>0.1452991452991453</v>
       </c>
       <c r="R6">
-        <v>0.04977375565610859</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="S6">
-        <v>0.3212669683257919</v>
+        <v>0.3247863247863248</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.07954545454545454</v>
+        <v>0.0797872340425532</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01704545454545454</v>
+        <v>0.01595744680851064</v>
       </c>
       <c r="E7">
-        <v>0.005681818181818182</v>
+        <v>0.01063829787234043</v>
       </c>
       <c r="F7">
-        <v>0.05113636363636364</v>
+        <v>0.04787234042553191</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1590909090909091</v>
+        <v>0.1542553191489362</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.02840909090909091</v>
+        <v>0.02659574468085106</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1534090909090909</v>
+        <v>0.148936170212766</v>
       </c>
       <c r="R7">
-        <v>0.07954545454545454</v>
+        <v>0.0851063829787234</v>
       </c>
       <c r="S7">
-        <v>0.4261363636363636</v>
+        <v>0.4308510638297872</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1044776119402985</v>
+        <v>0.1086519114688129</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01279317697228145</v>
+        <v>0.01207243460764587</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.05756929637526653</v>
+        <v>0.05835010060362173</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1130063965884861</v>
+        <v>0.1106639839034205</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.02985074626865672</v>
+        <v>0.03018108651911469</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1663113006396588</v>
+        <v>0.1629778672032193</v>
       </c>
       <c r="R8">
-        <v>0.06823027718550106</v>
+        <v>0.07243460764587525</v>
       </c>
       <c r="S8">
-        <v>0.4477611940298508</v>
+        <v>0.4446680080482898</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.06532663316582915</v>
+        <v>0.06132075471698113</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01005025125628141</v>
+        <v>0.01415094339622642</v>
       </c>
       <c r="E9">
-        <v>0.005025125628140704</v>
+        <v>0.004716981132075472</v>
       </c>
       <c r="F9">
-        <v>0.09547738693467336</v>
+        <v>0.08962264150943396</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1507537688442211</v>
+        <v>0.1462264150943396</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.01005025125628141</v>
+        <v>0.009433962264150943</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.221105527638191</v>
+        <v>0.2169811320754717</v>
       </c>
       <c r="R9">
-        <v>0.07537688442211055</v>
+        <v>0.08490566037735849</v>
       </c>
       <c r="S9">
-        <v>0.3668341708542713</v>
+        <v>0.3726415094339622</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.126571668063705</v>
+        <v>0.1267605633802817</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02095557418273261</v>
+        <v>0.02190923317683881</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.05364626990779547</v>
+        <v>0.05320813771517997</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1299245599329422</v>
+        <v>0.1267605633802817</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.03017602682313495</v>
+        <v>0.03051643192488263</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.1860854987426656</v>
+        <v>0.1846635367762128</v>
       </c>
       <c r="R10">
-        <v>0.06621961441743504</v>
+        <v>0.06729264475743349</v>
       </c>
       <c r="S10">
-        <v>0.3864207879295893</v>
+        <v>0.3888888888888889</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1835443037974684</v>
+        <v>0.1807580174927114</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1012658227848101</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="K11">
-        <v>0.2405063291139241</v>
+        <v>0.2361516034985423</v>
       </c>
       <c r="L11">
-        <v>0.4367088607594937</v>
+        <v>0.4402332361516035</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.0379746835443038</v>
+        <v>0.04081632653061224</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7021276595744681</v>
+        <v>0.6883116883116883</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2127659574468085</v>
+        <v>0.2207792207792208</v>
       </c>
       <c r="K12">
-        <v>0.007092198581560284</v>
+        <v>0.006493506493506494</v>
       </c>
       <c r="L12">
-        <v>0.01418439716312057</v>
+        <v>0.01948051948051948</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.06382978723404255</v>
+        <v>0.06493506493506493</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1159,10 +1159,10 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.025</v>
+        <v>0.02380952380952381</v>
       </c>
       <c r="G13">
-        <v>0.525</v>
+        <v>0.5238095238095238</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.35</v>
+        <v>0.3571428571428572</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.1</v>
+        <v>0.09523809523809523</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.02631578947368421</v>
+        <v>0.02880658436213992</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1666666666666667</v>
+        <v>0.1604938271604938</v>
       </c>
       <c r="I15">
-        <v>0.09210526315789473</v>
+        <v>0.09053497942386832</v>
       </c>
       <c r="J15">
-        <v>0.3026315789473684</v>
+        <v>0.3127572016460906</v>
       </c>
       <c r="K15">
-        <v>0.06140350877192982</v>
+        <v>0.06584362139917696</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.0131578947368421</v>
+        <v>0.01234567901234568</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.03947368421052631</v>
+        <v>0.03703703703703703</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2982456140350877</v>
+        <v>0.2921810699588477</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.0273224043715847</v>
+        <v>0.03092783505154639</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.180327868852459</v>
+        <v>0.1752577319587629</v>
       </c>
       <c r="I16">
-        <v>0.09289617486338798</v>
+        <v>0.09278350515463918</v>
       </c>
       <c r="J16">
-        <v>0.3551912568306011</v>
+        <v>0.3556701030927835</v>
       </c>
       <c r="K16">
-        <v>0.09836065573770492</v>
+        <v>0.1030927835051546</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.0273224043715847</v>
+        <v>0.02577319587628866</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.07103825136612021</v>
+        <v>0.06701030927835051</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1475409836065574</v>
+        <v>0.1494845360824742</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.03258145363408521</v>
+        <v>0.03087885985748218</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1904761904761905</v>
+        <v>0.1876484560570071</v>
       </c>
       <c r="I17">
-        <v>0.112781954887218</v>
+        <v>0.1163895486935867</v>
       </c>
       <c r="J17">
-        <v>0.3784461152882205</v>
+        <v>0.3752969121140142</v>
       </c>
       <c r="K17">
-        <v>0.07518796992481203</v>
+        <v>0.07600950118764846</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.007518796992481203</v>
+        <v>0.007125890736342043</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.06015037593984962</v>
+        <v>0.05938242280285035</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1428571428571428</v>
+        <v>0.1472684085510689</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.02597402597402598</v>
+        <v>0.02312138728323699</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1233766233766234</v>
+        <v>0.1098265895953757</v>
       </c>
       <c r="I18">
-        <v>0.09740259740259741</v>
+        <v>0.1040462427745665</v>
       </c>
       <c r="J18">
-        <v>0.435064935064935</v>
+        <v>0.4450867052023121</v>
       </c>
       <c r="K18">
-        <v>0.07142857142857142</v>
+        <v>0.09248554913294797</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.03246753246753246</v>
+        <v>0.02890173410404624</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.05844155844155844</v>
+        <v>0.05202312138728324</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1558441558441558</v>
+        <v>0.1445086705202312</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.02239382239382239</v>
+        <v>0.02162941600576784</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2378378378378379</v>
+        <v>0.2386445565969719</v>
       </c>
       <c r="I19">
-        <v>0.07799227799227799</v>
+        <v>0.07570295602018745</v>
       </c>
       <c r="J19">
-        <v>0.3444015444015444</v>
+        <v>0.3446286950252343</v>
       </c>
       <c r="K19">
-        <v>0.1196911196911197</v>
+        <v>0.1196827685652487</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01853281853281853</v>
+        <v>0.01946647440519106</v>
       </c>
       <c r="N19">
-        <v>0.001544401544401544</v>
+        <v>0.00144196106705119</v>
       </c>
       <c r="O19">
-        <v>0.06254826254826255</v>
+        <v>0.06488824801730353</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1150579150579151</v>
+        <v>0.113914924297044</v>
       </c>
     </row>
   </sheetData>
